--- a/analyses/trees/RNA1/RNA1_Seq_IDs.xlsx
+++ b/analyses/trees/RNA1/RNA1_Seq_IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/analyses/trees/RNA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/diverse_collections/github/analyses/trees/RNA1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B73909-3318-D749-8567-D2EA495493A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4BE628-9C81-194B-A57F-824DC498BF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32400" yWindow="500" windowWidth="17240" windowHeight="21100" xr2:uid="{C5CC4E02-00F2-344F-A047-B9E9E3AD013B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="268">
   <si>
     <t>D_mel_USA_2020_mel-20-TD-3_Galbut_virus_RNA1_Complete_CDS</t>
   </si>
@@ -804,9 +804,6 @@
   </si>
   <si>
     <t>Ohio</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>Pennsylvania</t>
@@ -1216,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C2393-5C50-2A47-93A3-2BB7B4877225}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83:C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1235,10 @@
         <v>249</v>
       </c>
       <c r="D1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" t="s">
         <v>263</v>
-      </c>
-      <c r="E1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1258,7 +1255,7 @@
         <v>2020</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1275,7 +1272,7 @@
         <v>2020</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1292,7 +1289,7 @@
         <v>2021</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1309,7 +1306,7 @@
         <v>2023</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1326,7 +1323,7 @@
         <v>2023</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1343,7 +1340,7 @@
         <v>2023</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,7 +1357,7 @@
         <v>2023</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1377,7 +1374,7 @@
         <v>2023</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,7 +1391,7 @@
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1411,7 +1408,7 @@
         <v>2023</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1428,7 +1425,7 @@
         <v>2023</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1445,7 +1442,7 @@
         <v>2023</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,7 +1459,7 @@
         <v>2023</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1479,7 +1476,7 @@
         <v>2023</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1496,7 +1493,7 @@
         <v>2023</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1513,7 +1510,7 @@
         <v>2023</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1530,7 +1527,7 @@
         <v>2023</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1547,7 +1544,7 @@
         <v>2023</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1564,7 +1561,7 @@
         <v>2023</v>
       </c>
       <c r="E20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1581,7 +1578,7 @@
         <v>2023</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1598,7 +1595,7 @@
         <v>2023</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1615,7 +1612,7 @@
         <v>2023</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1632,7 +1629,7 @@
         <v>2023</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1649,7 +1646,7 @@
         <v>2023</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1666,7 +1663,7 @@
         <v>2023</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1683,7 +1680,7 @@
         <v>2023</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1700,7 +1697,7 @@
         <v>2023</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1717,7 +1714,7 @@
         <v>2023</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1734,7 +1731,7 @@
         <v>2023</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1751,7 +1748,7 @@
         <v>2023</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1768,7 +1765,7 @@
         <v>2023</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1785,7 +1782,7 @@
         <v>2023</v>
       </c>
       <c r="E33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1802,7 +1799,7 @@
         <v>2023</v>
       </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1819,7 +1816,7 @@
         <v>2023</v>
       </c>
       <c r="E35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,7 +1833,7 @@
         <v>2023</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1853,7 +1850,7 @@
         <v>2023</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1870,7 +1867,7 @@
         <v>2023</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,7 +1884,7 @@
         <v>2023</v>
       </c>
       <c r="E39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1904,7 +1901,7 @@
         <v>2023</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1921,7 +1918,7 @@
         <v>2023</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,7 +1935,7 @@
         <v>2023</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1955,7 +1952,7 @@
         <v>2023</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1972,7 +1969,7 @@
         <v>2023</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1989,7 +1986,7 @@
         <v>2023</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2006,7 +2003,7 @@
         <v>2023</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2023,7 +2020,7 @@
         <v>2023</v>
       </c>
       <c r="E47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2040,7 +2037,7 @@
         <v>2023</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2057,7 +2054,7 @@
         <v>2023</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2074,7 +2071,7 @@
         <v>2023</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2091,7 +2088,7 @@
         <v>2023</v>
       </c>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2108,7 +2105,7 @@
         <v>2023</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2125,7 +2122,7 @@
         <v>2023</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2142,7 +2139,7 @@
         <v>2023</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2159,7 +2156,7 @@
         <v>2023</v>
       </c>
       <c r="E55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2176,7 +2173,7 @@
         <v>2023</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2193,7 +2190,7 @@
         <v>2023</v>
       </c>
       <c r="E57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2210,7 +2207,7 @@
         <v>2023</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2227,7 +2224,7 @@
         <v>2023</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2244,7 +2241,7 @@
         <v>2023</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2261,7 +2258,7 @@
         <v>2023</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2278,7 +2275,7 @@
         <v>2023</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2295,7 +2292,7 @@
         <v>2023</v>
       </c>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2312,7 +2309,7 @@
         <v>2023</v>
       </c>
       <c r="E64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2329,7 +2326,7 @@
         <v>2023</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2346,7 +2343,7 @@
         <v>2023</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -2363,7 +2360,7 @@
         <v>2023</v>
       </c>
       <c r="E67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2380,7 +2377,7 @@
         <v>2023</v>
       </c>
       <c r="E68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2397,7 +2394,7 @@
         <v>2023</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -2414,7 +2411,7 @@
         <v>2023</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -2431,7 +2428,7 @@
         <v>2023</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -2448,7 +2445,7 @@
         <v>2023</v>
       </c>
       <c r="E72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -2465,7 +2462,7 @@
         <v>2023</v>
       </c>
       <c r="E73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2482,7 +2479,7 @@
         <v>2023</v>
       </c>
       <c r="E74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2499,7 +2496,7 @@
         <v>2023</v>
       </c>
       <c r="E75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2516,7 +2513,7 @@
         <v>2023</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2533,7 +2530,7 @@
         <v>2023</v>
       </c>
       <c r="E77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2550,7 +2547,7 @@
         <v>2023</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,7 +2564,7 @@
         <v>2023</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2584,7 +2581,7 @@
         <v>2023</v>
       </c>
       <c r="E80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2601,7 +2598,7 @@
         <v>2023</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2618,7 +2615,7 @@
         <v>2023</v>
       </c>
       <c r="E82" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2629,13 +2626,13 @@
         <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D83">
         <v>2023</v>
       </c>
       <c r="E83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2646,13 +2643,13 @@
         <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D84">
         <v>2023</v>
       </c>
       <c r="E84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -2663,13 +2660,13 @@
         <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D85">
         <v>2023</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,13 +2677,13 @@
         <v>169</v>
       </c>
       <c r="C86" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D86">
         <v>2023</v>
       </c>
       <c r="E86" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2697,13 +2694,13 @@
         <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87">
         <v>2023</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2714,13 +2711,13 @@
         <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88">
         <v>2023</v>
       </c>
       <c r="E88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2731,13 +2728,13 @@
         <v>175</v>
       </c>
       <c r="C89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89">
         <v>2023</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2748,13 +2745,13 @@
         <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90">
         <v>2023</v>
       </c>
       <c r="E90" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2765,13 +2762,13 @@
         <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91">
         <v>2023</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2782,13 +2779,13 @@
         <v>181</v>
       </c>
       <c r="C92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92">
         <v>2023</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2799,13 +2796,13 @@
         <v>183</v>
       </c>
       <c r="C93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93">
         <v>2023</v>
       </c>
       <c r="E93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2816,13 +2813,13 @@
         <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D94">
         <v>2023</v>
       </c>
       <c r="E94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2833,13 +2830,13 @@
         <v>187</v>
       </c>
       <c r="C95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95">
         <v>2023</v>
       </c>
       <c r="E95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2850,13 +2847,13 @@
         <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96">
         <v>2023</v>
       </c>
       <c r="E96" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2867,13 +2864,13 @@
         <v>191</v>
       </c>
       <c r="C97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D97">
         <v>2023</v>
       </c>
       <c r="E97" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2890,7 +2887,7 @@
         <v>2023</v>
       </c>
       <c r="E98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2901,7 +2898,7 @@
         <v>252</v>
       </c>
       <c r="E99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2909,13 +2906,13 @@
         <v>195</v>
       </c>
       <c r="C100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D100">
         <v>2013</v>
       </c>
       <c r="E100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2923,13 +2920,13 @@
         <v>196</v>
       </c>
       <c r="C101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D101">
         <v>2008</v>
       </c>
       <c r="E101" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2937,13 +2934,13 @@
         <v>197</v>
       </c>
       <c r="C102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D102">
         <v>2008</v>
       </c>
       <c r="E102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2951,13 +2948,13 @@
         <v>198</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D103">
         <v>2008</v>
       </c>
       <c r="E103" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2965,13 +2962,13 @@
         <v>199</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D104">
         <v>2008</v>
       </c>
       <c r="E104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2979,13 +2976,13 @@
         <v>200</v>
       </c>
       <c r="C105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D105">
         <v>2008</v>
       </c>
       <c r="E105" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2993,13 +2990,13 @@
         <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D106">
         <v>2008</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -3013,7 +3010,7 @@
         <v>2017</v>
       </c>
       <c r="E107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3027,7 +3024,7 @@
         <v>2018</v>
       </c>
       <c r="E108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,13 +3032,13 @@
         <v>204</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D109">
         <v>2018</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -3049,13 +3046,13 @@
         <v>205</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D110">
         <v>2018</v>
       </c>
       <c r="E110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -3063,13 +3060,13 @@
         <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D111">
         <v>2018</v>
       </c>
       <c r="E111" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3077,13 +3074,13 @@
         <v>207</v>
       </c>
       <c r="C112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D112">
         <v>2018</v>
       </c>
       <c r="E112" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -3091,13 +3088,13 @@
         <v>208</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D113">
         <v>2018</v>
       </c>
       <c r="E113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -3105,13 +3102,13 @@
         <v>209</v>
       </c>
       <c r="C114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D114">
         <v>2018</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
@@ -3119,13 +3116,13 @@
         <v>210</v>
       </c>
       <c r="C115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D115">
         <v>2018</v>
       </c>
       <c r="E115" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
@@ -3133,13 +3130,13 @@
         <v>211</v>
       </c>
       <c r="C116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D116">
         <v>2018</v>
       </c>
       <c r="E116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
@@ -3147,13 +3144,13 @@
         <v>212</v>
       </c>
       <c r="C117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D117">
         <v>2018</v>
       </c>
       <c r="E117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
@@ -3161,13 +3158,13 @@
         <v>213</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D118">
         <v>2018</v>
       </c>
       <c r="E118" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
@@ -3175,13 +3172,13 @@
         <v>214</v>
       </c>
       <c r="C119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D119">
         <v>2018</v>
       </c>
       <c r="E119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -3189,13 +3186,13 @@
         <v>215</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D120">
         <v>2018</v>
       </c>
       <c r="E120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
@@ -3203,13 +3200,13 @@
         <v>216</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D121">
         <v>2018</v>
       </c>
       <c r="E121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
@@ -3217,13 +3214,13 @@
         <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D122">
         <v>2018</v>
       </c>
       <c r="E122" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
@@ -3237,7 +3234,7 @@
         <v>2020</v>
       </c>
       <c r="E123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
@@ -3251,7 +3248,7 @@
         <v>2020</v>
       </c>
       <c r="E124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
@@ -3265,7 +3262,7 @@
         <v>2020</v>
       </c>
       <c r="E125" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -3279,7 +3276,7 @@
         <v>2020</v>
       </c>
       <c r="E126" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
@@ -3293,7 +3290,7 @@
         <v>2020</v>
       </c>
       <c r="E127" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
@@ -3307,7 +3304,7 @@
         <v>2020</v>
       </c>
       <c r="E128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
@@ -3321,7 +3318,7 @@
         <v>2021</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
@@ -3335,7 +3332,7 @@
         <v>2021</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
@@ -3349,7 +3346,7 @@
         <v>2021</v>
       </c>
       <c r="E131" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
@@ -3363,7 +3360,7 @@
         <v>2021</v>
       </c>
       <c r="E132" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -3377,7 +3374,7 @@
         <v>2021</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
@@ -3391,7 +3388,7 @@
         <v>2021</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
@@ -3405,7 +3402,7 @@
         <v>2021</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
@@ -3419,7 +3416,7 @@
         <v>2021</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
@@ -3433,7 +3430,7 @@
         <v>2021</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
@@ -3447,7 +3444,7 @@
         <v>2021</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
@@ -3461,7 +3458,7 @@
         <v>2021</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
@@ -3475,7 +3472,7 @@
         <v>2021</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
@@ -3489,7 +3486,7 @@
         <v>2021</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
@@ -3503,7 +3500,7 @@
         <v>2021</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
@@ -3517,7 +3514,7 @@
         <v>2021</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
@@ -3531,7 +3528,7 @@
         <v>2021</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
@@ -3545,7 +3542,7 @@
         <v>2021</v>
       </c>
       <c r="E145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
@@ -3559,7 +3556,7 @@
         <v>2021</v>
       </c>
       <c r="E146" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
@@ -3573,7 +3570,7 @@
         <v>2021</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -3581,13 +3578,13 @@
         <v>243</v>
       </c>
       <c r="C148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D148">
         <v>1908</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
@@ -3595,13 +3592,13 @@
         <v>244</v>
       </c>
       <c r="C149" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D149">
         <v>1930</v>
       </c>
       <c r="E149" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
@@ -3609,13 +3606,13 @@
         <v>245</v>
       </c>
       <c r="C150" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D150">
         <v>1919</v>
       </c>
       <c r="E150" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -3623,13 +3620,13 @@
         <v>246</v>
       </c>
       <c r="C151" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D151">
         <v>1963</v>
       </c>
       <c r="E151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
@@ -3637,13 +3634,13 @@
         <v>247</v>
       </c>
       <c r="C152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D152">
         <v>2000</v>
       </c>
       <c r="E152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
@@ -3651,13 +3648,13 @@
         <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D153">
         <v>2011</v>
       </c>
       <c r="E153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
